--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -221,6 +221,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, chart wrong</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T6" authorId="0">
       <text>
         <r>
@@ -257,6 +283,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Chart wrong</t>
         </r>
       </text>
     </comment>
@@ -477,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="108">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -1031,127 +1070,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1551,18 +1590,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
-      <selection pane="bottomRight" activeCell="R34" activeCellId="0" sqref="R34"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1678,12 +1717,19 @@
         <v>79</v>
       </c>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V2" s="10" t="s">
@@ -1731,13 +1777,20 @@
         <v>79</v>
       </c>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="Q3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S3" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T3" s="10" t="s">
         <v>79</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>79</v>
@@ -1784,14 +1837,21 @@
         <v>79</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="U4" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="V4" s="10" t="s">
         <v>79</v>
       </c>
@@ -1817,7 +1877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="s">
         <v>83</v>
       </c>
@@ -1837,12 +1897,19 @@
         <v>79</v>
       </c>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="Q5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S5" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V5" s="10" t="s">
@@ -1887,12 +1954,19 @@
         <v>80</v>
       </c>
       <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="Q6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="S6" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="10" t="s">
@@ -1934,12 +2008,19 @@
         <v>79</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S7" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V7" s="10" t="s">
@@ -1981,12 +2062,19 @@
         <v>79</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S8" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -2025,12 +2113,19 @@
         <v>79</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="Q9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V9" s="10" t="s">
@@ -2069,12 +2164,19 @@
         <v>79</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="Q10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S10" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V10" s="10" t="s">
@@ -2113,15 +2215,21 @@
         <v>79</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S11" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="U11" s="17"/>
+      <c r="U11" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="V11" s="10" t="s">
         <v>79</v>
       </c>
@@ -2158,13 +2266,20 @@
         <v>79</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="Q12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>79</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="V12" s="10" t="s">
         <v>79</v>
@@ -2203,11 +2318,16 @@
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V13" s="10" t="s">
@@ -2247,11 +2367,16 @@
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S14" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V14" s="10" t="s">
@@ -2291,11 +2416,16 @@
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -2335,11 +2465,16 @@
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V16" s="10" t="s">
@@ -2379,11 +2514,16 @@
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S17" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V17" s="10" t="s">
@@ -2402,7 +2542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
         <v>98</v>
       </c>
@@ -2423,11 +2563,16 @@
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="R18" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S18" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V18" s="10" t="s">
@@ -2467,11 +2612,16 @@
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="R19" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V19" s="10" t="s">
@@ -2511,11 +2661,16 @@
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V20" s="10" t="s">
@@ -2555,11 +2710,16 @@
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S21" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V21" s="23" t="s">
@@ -2599,13 +2759,18 @@
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S22" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="U22" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="V22" s="10" t="s">
         <v>79</v>
       </c>
@@ -2622,7 +2787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
         <v>103</v>
       </c>
@@ -2643,11 +2808,16 @@
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S23" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V23" s="10" t="s">
@@ -2687,11 +2857,16 @@
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="S24" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V24" s="10" t="s">
@@ -2731,12 +2906,17 @@
       </c>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="R25" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="S25" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T25" s="10" t="s">
         <v>79</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="V25" s="23" t="s">
         <v>80</v>
@@ -2780,7 +2960,10 @@
       </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
+      <c r="R27" s="29" t="n">
+        <f aca="false">(24-10)/24*100</f>
+        <v>58.3333333333333</v>
+      </c>
       <c r="S27" s="29" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
@@ -2789,7 +2972,10 @@
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="U27" s="28"/>
+      <c r="U27" s="28" t="n">
+        <f aca="false">(24-2)/24*100</f>
+        <v>91.6666666666667</v>
+      </c>
       <c r="V27" s="28" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
@@ -2818,7 +3004,9 @@
       <c r="J29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="31" t="n">
+        <v>3453.23</v>
+      </c>
       <c r="R29" s="31" t="n">
         <v>1167</v>
       </c>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,11 +230,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, chart wrong</t>
+          <t xml:space="preserve">SQL is correct but charting failed</t>
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0">
+    <comment ref="P20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,11 +243,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
+          <t xml:space="preserve">SQL correct, 
+Charting wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="P22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,11 +257,63 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly wrong</t>
+          <t xml:space="preserve">SQL correct; but vanna failed to run it</t>
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0">
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, chart wrong</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, plotly wrong</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,6 +335,19 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Chart wrong</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
@@ -295,11 +361,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Chart wrong</t>
+          <t xml:space="preserve">SQL ok, not plotly
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="U14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,11 +375,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">Plotly is nice</t>
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="0">
+    <comment ref="U21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,12 +388,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, not plotly
-</t>
+          <t xml:space="preserve">SQL error</t>
         </r>
       </text>
     </comment>
-    <comment ref="V14" authorId="0">
+    <comment ref="W16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,11 +401,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly is nice</t>
+          <t xml:space="preserve">Plotly failed</t>
         </r>
       </text>
     </comment>
-    <comment ref="V21" authorId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,11 +414,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL error</t>
+          <t xml:space="preserve">Plotly is impressive</t>
         </r>
       </text>
     </comment>
-    <comment ref="X16" authorId="0">
+    <comment ref="X8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,11 +427,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly failed</t>
+          <t xml:space="preserve">Plotly is impressive
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y7" authorId="0">
+    <comment ref="X11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,11 +441,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly is impressive</t>
+          <t xml:space="preserve">Add group by month</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y8" authorId="0">
+    <comment ref="X12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,12 +454,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly is impressive
-</t>
+          <t xml:space="preserve">Does a nice job of concat first/last name</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0">
+    <comment ref="X19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,11 +467,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Add group by month</t>
+          <t xml:space="preserve">Missing single-quote</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y12" authorId="0">
+    <comment ref="X21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -414,11 +480,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Does a nice job of concat first/last name</t>
+          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y19" authorId="0">
+    <comment ref="Y10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,11 +493,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Missing single-quote</t>
+          <t xml:space="preserve">Plotly not good</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y21" authorId="0">
+    <comment ref="AA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,11 +506,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
+          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z10" authorId="0">
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,11 +519,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly not good</t>
+          <t xml:space="preserve">Timed out
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,11 +533,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
+          <t xml:space="preserve">Gives explanation
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="0">
+    <comment ref="AB6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,12 +547,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timed out
-</t>
+          <t xml:space="preserve">SQL ok, plotly poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,21 +560,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Gives explanation
+          <t xml:space="preserve">Should be country not BillingCountry
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL ok, plotly poor</t>
         </r>
       </text>
     </comment>
@@ -516,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="108">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -722,36 +776,36 @@
     <t xml:space="preserve">Gemini-1-.5-pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Deepseek-coder</t>
+    <t xml:space="preserve">Deepseek-coder-v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code gemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starcoder2</t>
   </si>
   <si>
     <t xml:space="preserve">Phi 3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Llama 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemma 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code gemma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starcoder2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can you list all tables in the SQLite database catalog?</t>
   </si>
   <si>
@@ -770,10 +824,10 @@
     <t xml:space="preserve">what are the top 5 countries that customers come from?</t>
   </si>
   <si>
+    <t xml:space="preserve">mixed</t>
+  </si>
+  <si>
     <t xml:space="preserve">List all albums and their corresponding artist names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixed</t>
   </si>
   <si>
     <t xml:space="preserve">Find all tracks with a name containing "What" (case-insensitive)</t>
@@ -983,14 +1037,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD428"/>
-        <bgColor rgb="FFFFDE59"/>
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFDE59"/>
       </patternFill>
     </fill>
     <fill>
@@ -1065,7 +1119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1188,6 +1242,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1267,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1281,7 +1339,7 @@
       <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.94"/>
@@ -1590,21 +1648,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="P4" activeCellId="0" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="50.43"/>
@@ -1614,16 +1672,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="9" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="10" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="10" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="10" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="3" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>59</v>
       </c>
@@ -1660,41 +1721,41 @@
       <c r="Q1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>70</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>74</v>
       </c>
       <c r="W1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="AB1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1777,9 @@
       <c r="O2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q2" s="10" t="s">
         <v>79</v>
       </c>
@@ -1741,20 +1804,20 @@
       <c r="X2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>80</v>
+      <c r="AC2" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,21 +1839,23 @@
       <c r="O3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q3" s="17" t="s">
         <v>80</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>80</v>
+      <c r="S3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>79</v>
@@ -1801,19 +1866,19 @@
       <c r="X3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>80</v>
+      <c r="Y3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1836,7 +1901,9 @@
       <c r="O4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q4" s="10" t="s">
         <v>79</v>
       </c>
@@ -1861,19 +1928,19 @@
       <c r="X4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1896,12 +1963,14 @@
       <c r="O5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>80</v>
+      <c r="R5" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>79</v>
@@ -1921,44 +1990,46 @@
       <c r="X5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>80</v>
+      <c r="Y5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>85</v>
+      <c r="R6" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>79</v>
@@ -1969,23 +2040,23 @@
       <c r="U6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>85</v>
+      <c r="V6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>85</v>
+      <c r="Y6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,12 +2078,14 @@
       <c r="O7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>80</v>
+      <c r="P7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>79</v>
@@ -2026,20 +2099,20 @@
       <c r="V7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>80</v>
+      <c r="W7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,9 +2134,11 @@
       <c r="O8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="17" t="s">
-        <v>80</v>
+      <c r="P8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>79</v>
@@ -2086,11 +2161,11 @@
       <c r="X8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>79</v>
+      <c r="Y8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,15 +2187,17 @@
       <c r="O9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>80</v>
+      <c r="P9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>79</v>
@@ -2137,11 +2214,11 @@
       <c r="X9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>79</v>
+      <c r="Y9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,9 +2240,11 @@
       <c r="O10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="17" t="s">
-        <v>80</v>
+      <c r="P10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>79</v>
@@ -2188,11 +2267,11 @@
       <c r="X10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>79</v>
+      <c r="Y10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,18 +2293,20 @@
       <c r="O11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="17" t="s">
-        <v>80</v>
+      <c r="P11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>80</v>
+      <c r="S11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="U11" s="10" t="s">
         <v>79</v>
@@ -2236,14 +2317,14 @@
       <c r="W11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="X11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>79</v>
+      <c r="X11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,21 +2346,23 @@
       <c r="O12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>85</v>
+      <c r="S12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="V12" s="10" t="s">
         <v>79</v>
@@ -2290,10 +2373,10 @@
       <c r="X12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="18" t="s">
+      <c r="Y12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2316,8 +2399,12 @@
       <c r="O13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R13" s="10" t="s">
         <v>79</v>
       </c>
@@ -2339,12 +2426,10 @@
       <c r="X13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="s">
@@ -2365,8 +2450,12 @@
       <c r="O14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2388,12 +2477,10 @@
       <c r="X14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="s">
@@ -2414,8 +2501,12 @@
       <c r="O15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R15" s="10" t="s">
         <v>79</v>
       </c>
@@ -2428,21 +2519,19 @@
       <c r="U15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>85</v>
+      <c r="V15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="X15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="s">
@@ -2463,10 +2552,14 @@
       <c r="O16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="17" t="s">
-        <v>80</v>
+      <c r="P16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>79</v>
@@ -2486,12 +2579,10 @@
       <c r="X16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="s">
@@ -2512,10 +2603,14 @@
       <c r="O17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="17" t="s">
-        <v>80</v>
+      <c r="P17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>79</v>
@@ -2530,19 +2625,17 @@
         <v>79</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
         <v>98</v>
       </c>
@@ -2561,13 +2654,17 @@
       <c r="O18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="P18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="R18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="17" t="s">
-        <v>80</v>
+      <c r="S18" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>79</v>
@@ -2584,12 +2681,10 @@
       <c r="X18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z18" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="s">
@@ -2610,8 +2705,12 @@
       <c r="O19" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="P19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R19" s="10" t="s">
         <v>79</v>
       </c>
@@ -2624,21 +2723,19 @@
       <c r="U19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="V19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="s">
@@ -2659,8 +2756,12 @@
       <c r="O20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R20" s="10" t="s">
         <v>79</v>
       </c>
@@ -2682,12 +2783,10 @@
       <c r="X20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="s">
@@ -2708,22 +2807,26 @@
       <c r="O21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="R21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S21" s="17" t="s">
-        <v>80</v>
+      <c r="S21" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="T21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>80</v>
+      <c r="U21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="W21" s="10" t="s">
         <v>79</v>
@@ -2731,12 +2834,10 @@
       <c r="X21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z21" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="s">
@@ -2757,10 +2858,14 @@
       <c r="O22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="17" t="s">
-        <v>80</v>
+      <c r="P22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>79</v>
@@ -2780,14 +2885,12 @@
       <c r="X22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
         <v>103</v>
       </c>
@@ -2806,8 +2909,12 @@
       <c r="O23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R23" s="10" t="s">
         <v>79</v>
       </c>
@@ -2823,18 +2930,16 @@
       <c r="V23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W23" s="10" t="s">
-        <v>79</v>
+      <c r="W23" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="X23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="Y23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="s">
@@ -2855,8 +2960,12 @@
       <c r="O24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="P24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="R24" s="10" t="s">
         <v>79</v>
       </c>
@@ -2878,12 +2987,10 @@
       <c r="X24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z24" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="s">
@@ -2904,114 +3011,123 @@
       <c r="O25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="17" t="s">
-        <v>80</v>
+      <c r="P25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="10" t="s">
-        <v>79</v>
+      <c r="T25" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="U25" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="27" t="s">
+      <c r="V25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC25" s="25"/>
+    </row>
+    <row r="26" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="28" t="n">
+      <c r="K26" s="28" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="L27" s="28" t="n">
+      <c r="L26" s="28" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="28" t="n">
+      <c r="M26" s="28" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="N27" s="28" t="n">
+      <c r="N26" s="28" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="O27" s="28" t="n">
+      <c r="O26" s="28" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29" t="n">
+      <c r="P26" s="28" t="n">
+        <f aca="false">(24-0)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q26" s="29" t="n">
         <f aca="false">(24-10)/24*100</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="S27" s="29" t="n">
+      <c r="R26" s="29" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="T27" s="28" t="n">
+      <c r="S26" s="28" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="U27" s="28" t="n">
+      <c r="T26" s="28" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="V27" s="28" t="n">
+      <c r="U26" s="28" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="W27" s="28" t="n">
+      <c r="V26" s="28" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="X27" s="28" t="n">
+      <c r="W26" s="28" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Y27" s="28" t="n">
+      <c r="X26" s="28" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="Z27" s="30" t="n">
+      <c r="Y26" s="30" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="9" t="s">
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="28"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q29" s="31" t="n">
+      <c r="P27" s="31" t="n">
+        <v>1405.62</v>
+      </c>
+      <c r="Q27" s="32" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T27" s="21" t="n">
+        <v>2573.07</v>
+      </c>
+      <c r="AC27" s="32" t="n">
         <v>3453.23</v>
-      </c>
-      <c r="R29" s="31" t="n">
-        <v>1167</v>
-      </c>
-      <c r="U29" s="21" t="n">
-        <v>2573.07</v>
       </c>
     </row>
   </sheetData>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0">
+    <comment ref="Q12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,11 +270,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, chart wrong</t>
+          <t xml:space="preserve">Chart wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,47 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, not plotly
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plotly is nice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL error</t>
         </r>
       </text>
     </comment>
@@ -296,11 +336,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly wrong</t>
+          <t xml:space="preserve">SQL ok, chart wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="S26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,11 +349,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,24 +362,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">SQL ok, plotly wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Chart wrong</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U7" authorId="0">
+    <comment ref="U10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,34 +388,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, not plotly
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Plotly is nice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL error</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
     </comment>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="109">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -761,6 +761,9 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL Questions</t>
+  </si>
+  <si>
     <t xml:space="preserve">gpt-4</t>
   </si>
   <si>
@@ -779,6 +782,12 @@
     <t xml:space="preserve">Deepseek-coder-v2</t>
   </si>
   <si>
+    <t xml:space="preserve">Qwen 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Llama 3.2</t>
   </si>
   <si>
@@ -786,12 +795,6 @@
   </si>
   <si>
     <t xml:space="preserve">Llama 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gemma 2</t>
@@ -986,7 +989,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,7 +1011,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFB7B3CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -1025,8 +1028,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7B3CA"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1077,6 +1086,12 @@
         <bgColor rgb="FFFFE994"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -1119,7 +1134,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,34 +1199,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1224,6 +1239,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1236,7 +1255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1244,12 +1263,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1277,7 +1308,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFB7B3CA"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFFF3737"/>
@@ -1286,7 +1317,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFDE59"/>
@@ -1310,9 +1341,9 @@
       <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF77BC65"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1659,7 +1690,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1672,8 +1703,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="9" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="10" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="10" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="10" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="7.92"/>
@@ -1681,7 +1714,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,1437 +1730,1460 @@
         <v>62</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="R1" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="S1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="14" t="s">
         <v>72</v>
       </c>
+      <c r="T1" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="U1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="16" t="s">
+      <c r="X1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>43</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>37</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>80</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="T6" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>80</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>80</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="AC14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>80</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>80</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="X17" s="23" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="AC18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="23" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="AC19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>80</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y21" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="AC21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="10" t="s">
         <v>80</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="X23" s="23" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="X23" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y24" s="18" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="Y24" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="AC24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>80</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W25" s="23" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="W25" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC25" s="25"/>
-    </row>
-    <row r="26" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC25" s="26"/>
+    </row>
+    <row r="26" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="29" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="L26" s="28" t="n">
+      <c r="L26" s="29" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="M26" s="28" t="n">
+      <c r="M26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="N26" s="28" t="n">
+      <c r="N26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="O26" s="28" t="n">
+      <c r="O26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="P26" s="28" t="n">
+      <c r="P26" s="29" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
       <c r="Q26" s="29" t="n">
+        <f aca="false">(24-2)/24*100</f>
+        <v>91.6666666666667</v>
+      </c>
+      <c r="R26" s="29" t="n">
+        <f aca="false">(24-2)/24*100</f>
+        <v>91.6666666666667</v>
+      </c>
+      <c r="S26" s="30" t="n">
         <f aca="false">(24-10)/24*100</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="R26" s="29" t="n">
+      <c r="T26" s="30" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="S26" s="28" t="n">
+      <c r="U26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="T26" s="28" t="n">
-        <f aca="false">(24-2)/24*100</f>
-        <v>91.6666666666667</v>
-      </c>
-      <c r="U26" s="28" t="n">
-        <f aca="false">(24-2)/24*100</f>
-        <v>91.6666666666667</v>
-      </c>
-      <c r="V26" s="28" t="n">
+      <c r="V26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="W26" s="28" t="n">
+      <c r="W26" s="29" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="X26" s="28" t="n">
+      <c r="X26" s="29" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="Y26" s="30" t="n">
+      <c r="Y26" s="31" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="28"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="29"/>
+      <c r="AMH26" s="0"/>
+      <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="31" t="n">
+    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="J27" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35" t="n">
         <v>1405.62</v>
       </c>
-      <c r="Q27" s="32" t="n">
+      <c r="Q27" s="36" t="n">
+        <v>2573.07</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="34" t="n">
         <v>1167</v>
       </c>
-      <c r="T27" s="21" t="n">
-        <v>2573.07</v>
-      </c>
-      <c r="AC27" s="32" t="n">
+      <c r="T27" s="34"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AC27" s="34" t="n">
         <v>3453.23</v>
       </c>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -1690,7 +1690,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1711,7 +1711,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="9" width="6.54"/>
   </cols>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -10,6 +10,8 @@
   <sheets>
     <sheet name="LLM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Question-results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Resources" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="dataset" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -261,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0">
+    <comment ref="R12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="S7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0">
+    <comment ref="S12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0">
+    <comment ref="S14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0">
+    <comment ref="S21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="0">
+    <comment ref="T26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,11 +351,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Llama3.2 worse than 3.1</t>
+          <t xml:space="preserve">Llama3.2 worse than llama3 because it is smaller</t>
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="X6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="0">
+    <comment ref="X10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,72 +378,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Plotly failed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Plotly is impressive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Plotly is impressive
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Add group by month</t>
         </r>
       </text>
     </comment>
@@ -454,11 +390,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Does a nice job of concat first/last name</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
     </comment>
-    <comment ref="X19" authorId="0">
+    <comment ref="AA16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,11 +403,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Missing single-quote</t>
+          <t xml:space="preserve">Plotly failed</t>
         </r>
       </text>
     </comment>
-    <comment ref="X21" authorId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,11 +416,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
+          <t xml:space="preserve">Plotly is impressive</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y10" authorId="0">
+    <comment ref="AB8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,11 +429,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Plotly not good</t>
+          <t xml:space="preserve">Plotly is impressive
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0">
+    <comment ref="AB11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,11 +443,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
+          <t xml:space="preserve">Add group by month</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0">
+    <comment ref="AB12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -519,12 +456,77 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Does a nice job of concat first/last name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Missing single-quote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Timed out
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB6" authorId="0">
+    <comment ref="AF6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0">
+    <comment ref="AG5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="135">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -779,24 +781,36 @@
     <t xml:space="preserve">Gemini-1-.5-pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Deepseek-coder-v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2.5</t>
+    <t xml:space="preserve">Deepseek-coder-v2 [16B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2.5 [14B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2.5 [7B]</t>
   </si>
   <si>
     <t xml:space="preserve">Qwen 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Llama 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3.1</t>
+    <t xml:space="preserve">Llama 3.2 [3B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.1(2) [8B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.1 [8B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3(2) [8B]</t>
   </si>
   <si>
     <t xml:space="preserve">Llama 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Gemma 2(2) [9B]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gemma 2</t>
   </si>
   <si>
@@ -897,6 +911,72 @@
   </si>
   <si>
     <t xml:space="preserve">elapsed time (sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing Open-source LLMs for NL-to-SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/dataherald/comparing-open-source-llms-for-nl-to-sql-53e6de42aee8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM’s text-to-SQL generator takes top place on a benchmark for handling complex database queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://research.ibm.com/blog/granite-LLM-text-to-SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLMs for Text-to-SQL problems: the benchmark vs real-world performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/pulse/llms-text-to-sql-problems-benchmark-vs-real-world-ilya-fastovets-fwfgc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmarking the Text-to-SQL Capability of Large Language Models: A Comprehensive Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/html/2403.02951v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next-Generation Database Interfaces: A Survey of LLM-based Text-to-SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/html/2406.08426v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yale Semantic Parsing and Text-to-SQL Challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yale-lily.github.io/spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Language Models on Real-World Enterprise Text-to-SQL Workflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spider2-sql.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xlang-ai/Spider2</t>
   </si>
 </sst>
 </file>
@@ -907,7 +987,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -988,8 +1068,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,7 +1104,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF729FCF"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -1092,6 +1179,12 @@
         <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -1134,7 +1227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1279,8 +1372,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1330,7 +1451,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFFFFF6D"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFD7D7"/>
@@ -1683,14 +1804,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1703,20 +1824,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="9" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="10" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="10" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="10" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="10" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="10" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="10" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="3" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="9" width="6.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1877,7 @@
       <c r="R1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>72</v>
       </c>
       <c r="T1" s="15" t="s">
@@ -1765,1319 +1886,1619 @@
       <c r="U1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>78</v>
+      <c r="AG1" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC11" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC12" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC13" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC14" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC15" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC16" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC17" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC18" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC19" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC20" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC21" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC22" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="W23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="X23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC23" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC24" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q25" s="24" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="W25" s="24" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG25" s="26"/>
     </row>
     <row r="26" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K26" s="29" t="n">
         <f aca="false">(24-0)/24*100</f>
@@ -3104,48 +3525,61 @@
         <v>100</v>
       </c>
       <c r="Q26" s="29" t="n">
-        <f aca="false">(24-2)/24*100</f>
-        <v>91.6666666666667</v>
+        <f aca="false">(24-0)/24*100</f>
+        <v>100</v>
       </c>
       <c r="R26" s="29" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="S26" s="30" t="n">
+      <c r="S26" s="29" t="n">
+        <f aca="false">(24-2)/24*100</f>
+        <v>91.6666666666667</v>
+      </c>
+      <c r="T26" s="30" t="n">
         <f aca="false">(24-10)/24*100</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="T26" s="30" t="n">
+      <c r="U26" s="30" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="U26" s="29" t="n">
+      <c r="V26" s="30" t="n">
+        <f aca="false">(24-5)/24*100</f>
+        <v>79.1666666666667</v>
+      </c>
+      <c r="W26" s="29" t="n">
+        <f aca="false">(24-0)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="X26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="V26" s="29" t="n">
+      <c r="Y26" s="29" t="n">
+        <f aca="false">(24-0)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="Z26" s="29" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="W26" s="29" t="n">
+      <c r="AA26" s="29" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="X26" s="29" t="n">
+      <c r="AB26" s="29" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="Y26" s="31" t="n">
+      <c r="AC26" s="31" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="29"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="29"/>
     </row>
     <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="32"/>
@@ -3153,7 +3587,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="J27" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -3161,29 +3595,47 @@
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="35" t="n">
-        <v>1405.62</v>
+        <v>1650</v>
       </c>
       <c r="Q27" s="36" t="n">
-        <v>2573.07</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="34" t="n">
+        <v>5723</v>
+      </c>
+      <c r="R27" s="36" t="n">
+        <v>2388</v>
+      </c>
+      <c r="S27" s="37"/>
+      <c r="T27" s="34" t="n">
         <v>1167</v>
       </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AC27" s="34" t="n">
+      <c r="U27" s="36" t="n">
+        <v>3366</v>
+      </c>
+      <c r="V27" s="34"/>
+      <c r="W27" s="36" t="n">
+        <v>3659</v>
+      </c>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="36" t="n">
+        <v>4473</v>
+      </c>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AG27" s="34" t="n">
         <v>3453.23</v>
       </c>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="38"/>
+      <c r="U28" s="39"/>
+      <c r="W28" s="40"/>
+      <c r="Y28" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3195,4 +3647,157 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="36.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://research.ibm.com/blog/granite-LLM-text-to-SQL"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.linkedin.com/pulse/llms-text-to-sql-problems-benchmark-vs-real-world-ilya-fastovets-fwfgc/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="27.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0">
+    <comment ref="S8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P20" authorId="0">
+    <comment ref="S20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="0">
+    <comment ref="S22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0">
+    <comment ref="U12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S7" authorId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0">
+    <comment ref="V12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S14" authorId="0">
+    <comment ref="V14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="0">
+    <comment ref="V21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="W6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="0">
+    <comment ref="W26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X6" authorId="0">
+    <comment ref="AA6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="0">
+    <comment ref="AA10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X12" authorId="0">
+    <comment ref="AA12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA16" authorId="0">
+    <comment ref="AD16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AE7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB8" authorId="0">
+    <comment ref="AE8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="0">
+    <comment ref="AE11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB12" authorId="0">
+    <comment ref="AE12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB19" authorId="0">
+    <comment ref="AE19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB21" authorId="0">
+    <comment ref="AE21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC10" authorId="0">
+    <comment ref="AF10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,60 +496,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly not good</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Timed out
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Gives explanation
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL ok, plotly poor</t>
         </r>
       </text>
     </comment>
@@ -572,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="145">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -781,6 +727,15 @@
     <t xml:space="preserve">Gemini-1-.5-pro</t>
   </si>
   <si>
+    <t xml:space="preserve">codegeex4 [9B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite-code:8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starcoder2 [7B]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deepseek-coder-v2 [16B]</t>
   </si>
   <si>
@@ -817,9 +772,6 @@
     <t xml:space="preserve">code gemma</t>
   </si>
   <si>
-    <t xml:space="preserve">starcoder2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phi 3.5</t>
   </si>
   <si>
@@ -829,12 +781,12 @@
     <t xml:space="preserve">pass</t>
   </si>
   <si>
+    <t xml:space="preserve">which table stores customer's orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">failed</t>
   </si>
   <si>
-    <t xml:space="preserve">which table stores customer's orders</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many customers are there</t>
   </si>
   <si>
@@ -916,6 +868,24 @@
     <t xml:space="preserve">Note</t>
   </si>
   <si>
+    <t xml:space="preserve">Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
@@ -953,6 +923,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://arxiv.org/html/2406.08426v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarCoder 2 and The Stack v2: The Next Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/abs/2402.19173</t>
   </si>
   <si>
     <t xml:space="preserve">URL-2</t>
@@ -1076,7 +1052,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,13 +1080,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFFF38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF6D"/>
       </patternFill>
     </fill>
     <fill>
@@ -1170,7 +1158,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFFF38"/>
       </patternFill>
     </fill>
     <fill>
@@ -1227,7 +1215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1269,6 +1257,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,6 +1280,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1296,38 +1292,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1336,6 +1332,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1348,7 +1352,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1356,19 +1364,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1376,15 +1380,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1396,7 +1404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,14 +1442,14 @@
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFFF3737"/>
       <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1452,12 +1460,12 @@
       <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF8000"/>
@@ -1804,14 +1812,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1824,1818 +1832,1972 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="9" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="10" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="10" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="10" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="10" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="11" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="11" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="11" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="11" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="11" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="9" width="6.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>68</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>74</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AE1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>82</v>
+      <c r="AG1" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="K2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="S2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="S3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG5" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="S5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="S6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="S7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG8" s="18" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="S8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG9" s="18" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG9" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG10" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="S10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG10" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB11" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="18" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="S11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG11" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG12" s="18" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG12" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG13" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="S13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG14" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="S14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG15" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="S15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG16" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="S16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="S17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG18" s="10"/>
+        <v>105</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="S18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB19" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG19" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="S19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG20" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="S20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC21" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG21" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="S21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG22" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="S22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG23" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="S23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC24" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG24" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="S24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG25" s="26"/>
-    </row>
-    <row r="26" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="29" t="n">
+        <v>112</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="S25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="W25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG25" s="30"/>
+    </row>
+    <row r="26" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="L26" s="29" t="n">
+      <c r="L26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="M26" s="29" t="n">
+      <c r="M26" s="33" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="N26" s="29" t="n">
+      <c r="N26" s="33" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="O26" s="29" t="n">
+      <c r="O26" s="33" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="P26" s="29" t="n">
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="Q26" s="29" t="n">
+      <c r="T26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="R26" s="29" t="n">
+      <c r="U26" s="33" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="S26" s="29" t="n">
+      <c r="V26" s="33" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="T26" s="30" t="n">
+      <c r="W26" s="35" t="n">
         <f aca="false">(24-10)/24*100</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="U26" s="30" t="n">
+      <c r="X26" s="35" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="V26" s="30" t="n">
+      <c r="Y26" s="35" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="W26" s="29" t="n">
+      <c r="Z26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="X26" s="29" t="n">
+      <c r="AA26" s="33" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="Y26" s="29" t="n">
+      <c r="AB26" s="33" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="Z26" s="29" t="n">
+      <c r="AC26" s="33" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="AA26" s="29" t="n">
+      <c r="AD26" s="33" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="AB26" s="29" t="n">
+      <c r="AE26" s="33" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="AC26" s="31" t="n">
+      <c r="AF26" s="36" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="29"/>
-    </row>
-    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="J27" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="35" t="n">
+      <c r="AG26" s="33"/>
+      <c r="AMG26" s="0"/>
+      <c r="AMH26" s="0"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="J27" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40" t="n">
+        <v>3928</v>
+      </c>
+      <c r="Q27" s="40" t="n">
+        <v>5752</v>
+      </c>
+      <c r="R27" s="39"/>
+      <c r="S27" s="41" t="n">
         <v>1650</v>
       </c>
-      <c r="Q27" s="36" t="n">
+      <c r="T27" s="40" t="n">
         <v>5723</v>
       </c>
-      <c r="R27" s="36" t="n">
+      <c r="U27" s="40" t="n">
         <v>2388</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="34" t="n">
+      <c r="V27" s="42"/>
+      <c r="W27" s="39" t="n">
         <v>1167</v>
       </c>
-      <c r="U27" s="36" t="n">
+      <c r="X27" s="40" t="n">
         <v>3366</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="36" t="n">
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40" t="n">
         <v>3659</v>
       </c>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="36" t="n">
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="40" t="n">
         <v>4473</v>
       </c>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AG27" s="34" t="n">
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="39" t="n">
         <v>3453.23</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="38"/>
-      <c r="U28" s="39"/>
-      <c r="W28" s="40"/>
-      <c r="Y28" s="23"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="39"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" s="43"/>
+      <c r="X29" s="44"/>
+      <c r="Z29" s="45"/>
+      <c r="AB29" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3654,68 +3816,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="36.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>116</v>
+      <c r="A1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>118</v>
+      <c r="A2" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>120</v>
+      <c r="A3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>122</v>
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>124</v>
+      <c r="A5" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>126</v>
+      <c r="A6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3746,49 +3916,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="27.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="27.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>127</v>
+      <c r="A1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>130</v>
+      <c r="A2" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>133</v>
+      <c r="A3" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-4.xlsx
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0">
+    <comment ref="R8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0">
+    <comment ref="R20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0">
+    <comment ref="R22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U12" authorId="0">
+    <comment ref="T12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="U7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="0">
+    <comment ref="U12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V14" authorId="0">
+    <comment ref="U14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V21" authorId="0">
+    <comment ref="U21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0">
+    <comment ref="V6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="0">
+    <comment ref="V26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="0">
+    <comment ref="Z6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0">
+    <comment ref="Z10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA12" authorId="0">
+    <comment ref="Z12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="0">
+    <comment ref="AC16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE7" authorId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE8" authorId="0">
+    <comment ref="AD8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE11" authorId="0">
+    <comment ref="AD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="0">
+    <comment ref="AD12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE19" authorId="0">
+    <comment ref="AD19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE21" authorId="0">
+    <comment ref="AD21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF10" authorId="0">
+    <comment ref="AE10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0">
+    <comment ref="AF5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="153">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -730,51 +730,54 @@
     <t xml:space="preserve">codegeex4 [9B]</t>
   </si>
   <si>
+    <t xml:space="preserve">Mistral-nemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepseek-coder-v2 [16B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2.5 [14B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2.5 [7B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.2 [3B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.1(2) [8B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3.1 [8B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3(2) [8B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma 2(2) [9B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code gemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi 3.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">granite-code:8b</t>
   </si>
   <si>
     <t xml:space="preserve">starcoder2 [7B]</t>
   </si>
   <si>
-    <t xml:space="preserve">Deepseek-coder-v2 [16B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2.5 [14B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2.5 [7B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3.2 [3B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3.1(2) [8B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3.1 [8B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3(2) [8B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemma 2(2) [9B]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemma 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code gemma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phi 3.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can you list all tables in the SQLite database catalog?</t>
   </si>
   <si>
@@ -877,15 +880,21 @@
     <t xml:space="preserve">Anthropic</t>
   </si>
   <si>
+    <t xml:space="preserve">Mistral</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBM</t>
   </si>
   <si>
-    <t xml:space="preserve">Mistral</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great</t>
   </si>
   <si>
+    <t xml:space="preserve">Not good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useless</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
@@ -895,6 +904,9 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
+    <t xml:space="preserve">URL2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comparing Open-source LLMs for NL-to-SQL</t>
   </si>
   <si>
@@ -929,6 +941,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://arxiv.org/abs/2402.19173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeGeeX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/THUDM/CodeGeeX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codegeex.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deepseek.com/</t>
   </si>
   <si>
     <t xml:space="preserve">URL-2</t>
@@ -1052,7 +1076,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,14 +1109,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF38"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF77BC65"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF38"/>
       </patternFill>
     </fill>
     <fill>
@@ -1111,6 +1135,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
     <fill>
@@ -1215,7 +1245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1256,14 +1286,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1280,10 +1314,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1304,30 +1334,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1340,6 +1370,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1352,27 +1386,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,23 +1414,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1404,7 +1438,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1444,7 +1478,7 @@
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -1815,11 +1849,11 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
-      <selection pane="bottomRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="R23" activeCellId="0" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,73 +1866,74 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="9" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="11" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="9" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="11" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="11" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="11" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="11" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="10" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="11" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="22" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="11" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="11" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="11" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="11" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="9" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="9" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="12" width="8.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="10" t="s">
         <v>70</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>73</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="19" t="s">
         <v>76</v>
       </c>
       <c r="X1" s="19" t="s">
@@ -1910,1784 +1945,1921 @@
       <c r="Z1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="20" t="s">
         <v>81</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="17" t="s">
         <v>84</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG3" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG5" s="24" t="s">
-        <v>91</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="S6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>91</v>
+      <c r="W6" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG6" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG8" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG9" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG10" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE11" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG11" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="X12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="AF12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG12" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AG12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF14" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC15" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="AB15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF18" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE18" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC19" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG19" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="X21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y21" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF21" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE21" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W22" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AC23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="X24" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF24" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AE24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="V25" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="W25" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD25" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG25" s="30"/>
-    </row>
-    <row r="26" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="33" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+    </row>
+    <row r="26" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="L26" s="33" t="n">
+      <c r="L26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="M26" s="33" t="n">
+      <c r="M26" s="34" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="N26" s="33" t="n">
+      <c r="N26" s="34" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="O26" s="33" t="n">
+      <c r="O26" s="34" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="33" t="n">
+      <c r="P26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="T26" s="33" t="n">
+      <c r="Q26" s="34" t="n">
+        <f aca="false">(24-1)/24*100</f>
+        <v>95.8333333333333</v>
+      </c>
+      <c r="R26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="U26" s="33" t="n">
+      <c r="S26" s="34" t="n">
+        <f aca="false">(24-0)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="T26" s="34" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="V26" s="33" t="n">
+      <c r="U26" s="34" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="W26" s="35" t="n">
+      <c r="V26" s="35" t="n">
         <f aca="false">(24-10)/24*100</f>
         <v>58.3333333333333</v>
+      </c>
+      <c r="W26" s="35" t="n">
+        <f aca="false">(24-5)/24*100</f>
+        <v>79.1666666666667</v>
       </c>
       <c r="X26" s="35" t="n">
         <f aca="false">(24-5)/24*100</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="Y26" s="35" t="n">
-        <f aca="false">(24-5)/24*100</f>
-        <v>79.1666666666667</v>
-      </c>
-      <c r="Z26" s="33" t="n">
+      <c r="Y26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="AA26" s="33" t="n">
+      <c r="Z26" s="34" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="AB26" s="33" t="n">
+      <c r="AA26" s="34" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="AC26" s="33" t="n">
+      <c r="AB26" s="34" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="AD26" s="33" t="n">
+      <c r="AC26" s="34" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="AE26" s="33" t="n">
+      <c r="AD26" s="34" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="AF26" s="36" t="n">
+      <c r="AE26" s="36" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="AG26" s="33"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="37"/>
+      <c r="AMF26" s="0"/>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="J27" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40" t="n">
+    <row r="27" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="J27" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41" t="n">
         <v>3928</v>
       </c>
-      <c r="Q27" s="40" t="n">
+      <c r="Q27" s="41" t="n">
+        <v>6353</v>
+      </c>
+      <c r="R27" s="42" t="n">
+        <v>1650</v>
+      </c>
+      <c r="S27" s="41" t="n">
+        <v>5723</v>
+      </c>
+      <c r="T27" s="41" t="n">
+        <v>2388</v>
+      </c>
+      <c r="U27" s="43"/>
+      <c r="V27" s="40" t="n">
+        <v>1167</v>
+      </c>
+      <c r="W27" s="41" t="n">
+        <v>3366</v>
+      </c>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="41" t="n">
+        <v>3659</v>
+      </c>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="41" t="n">
+        <v>4473</v>
+      </c>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="40" t="n">
+        <v>3453.23</v>
+      </c>
+      <c r="AG27" s="41" t="n">
         <v>5752</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="41" t="n">
-        <v>1650</v>
-      </c>
-      <c r="T27" s="40" t="n">
-        <v>5723</v>
-      </c>
-      <c r="U27" s="40" t="n">
-        <v>2388</v>
-      </c>
-      <c r="V27" s="42"/>
-      <c r="W27" s="39" t="n">
-        <v>1167</v>
-      </c>
-      <c r="X27" s="40" t="n">
-        <v>3366</v>
-      </c>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40" t="n">
-        <v>3659</v>
-      </c>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="40" t="n">
-        <v>4473</v>
-      </c>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="39" t="n">
-        <v>3453.23</v>
-      </c>
+      <c r="AH27" s="40"/>
+      <c r="AMF27" s="0"/>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
+    <row r="28" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="42"/>
       <c r="S28" s="41"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="39"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="41"/>
       <c r="X28" s="40"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="39"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AMF28" s="0"/>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
@@ -3695,37 +3867,37 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" s="9" t="n">
+      <c r="S29" s="44"/>
+      <c r="W29" s="45"/>
+      <c r="Y29" s="46"/>
+      <c r="AA29" s="28"/>
+      <c r="AG29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="10" t="n">
+      <c r="AH29" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="T29" s="43"/>
-      <c r="X29" s="44"/>
-      <c r="Z29" s="45"/>
-      <c r="AB29" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>18</v>
@@ -3733,8 +3905,11 @@
       <c r="P31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>119</v>
+      <c r="Q31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="T31" s="9" t="s">
         <v>28</v>
@@ -3743,7 +3918,7 @@
         <v>28</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="W31" s="9" t="s">
         <v>10</v>
@@ -3758,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB31" s="9" t="s">
         <v>18</v>
@@ -3769,34 +3944,43 @@
       <c r="AD31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF31" s="3" t="s">
+      <c r="AE31" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="AF31" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="AG31" s="9" t="s">
-        <v>38</v>
+        <v>121</v>
+      </c>
+      <c r="AH31" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB32" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH32" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3816,76 +4000,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="47" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>124</v>
+      <c r="A1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>126</v>
+      <c r="A2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>128</v>
+      <c r="A3" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>130</v>
+      <c r="A4" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>132</v>
+      <c r="A5" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>134</v>
+      <c r="A6" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>136</v>
+      <c r="A8" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3916,49 +4120,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="27.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="27.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="47" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>137</v>
+      <c r="A1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>140</v>
+      <c r="A2" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>143</v>
+      <c r="A3" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
